--- a/DataSheet/FOS3UW_to_postSanction.xlsx
+++ b/DataSheet/FOS3UW_to_postSanction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533E9058-81E9-42A9-9242-FE63462CD986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344F67F5-8495-44C7-AC07-D604D0856B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="191">
   <si>
     <t>Si_No</t>
   </si>
@@ -574,7 +574,31 @@
     <t>//android.view.View[contains(@content-desc,"Sanction")]</t>
   </si>
   <si>
-    <t>MF24120500001023</t>
+    <t>MF24120700003845</t>
+  </si>
+  <si>
+    <t>SearchApplication</t>
+  </si>
+  <si>
+    <t>FOS_PostSanction</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Case sent for approval"]</t>
+  </si>
+  <si>
+    <t>TC_01_05</t>
+  </si>
+  <si>
+    <t>Sanction Page</t>
+  </si>
+  <si>
+    <t>TC_01_05_16</t>
+  </si>
+  <si>
+    <t>Scroll up page</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Back to Home"]</t>
   </si>
 </sst>
 </file>
@@ -659,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -674,7 +698,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -996,16 +1019,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O182"/>
+  <dimension ref="A1:O186"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
@@ -1073,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1109,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1141,11 +1164,11 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A71" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1181,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1226,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1265,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1304,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1343,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -1382,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1419,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -1464,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -1509,7 +1532,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -1545,7 +1568,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -1581,7 +1604,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -1617,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -1662,7 +1685,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -1701,48 +1724,48 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1752,16 +1775,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -1770,16 +1799,16 @@
         <v>63</v>
       </c>
       <c r="L19" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1788,25 +1817,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -1815,16 +1835,16 @@
         <v>63</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1833,16 +1853,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -1851,16 +1880,16 @@
         <v>63</v>
       </c>
       <c r="L21" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N21" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1869,20 +1898,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" t="s">
-        <v>86</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -1891,60 +1916,55 @@
         <v>63</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N22" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" t="s">
-        <v>64</v>
-      </c>
-      <c r="M23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="D23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1954,7 +1974,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -1962,17 +1982,9 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
+      <c r="F24" s="5"/>
       <c r="H24" s="1" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -1999,7 +2011,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
@@ -2011,7 +2023,7 @@
         <v>39</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -2044,10 +2056,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -2055,8 +2067,8 @@
       <c r="E26" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>111</v>
+      <c r="F26" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2089,16 +2101,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
@@ -2107,16 +2128,16 @@
         <v>63</v>
       </c>
       <c r="L27" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N27" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2125,17 +2146,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="1"/>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
@@ -2162,13 +2191,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
         <v>143</v>
       </c>
-      <c r="D29" t="s">
-        <v>16</v>
+      <c r="D29" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>33</v>
@@ -2198,19 +2227,17 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="D30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
@@ -2237,7 +2264,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
         <v>143</v>
@@ -2245,17 +2272,8 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
@@ -2264,16 +2282,16 @@
         <v>63</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N31" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2282,7 +2300,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
         <v>143</v>
@@ -2290,17 +2308,11 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
       <c r="F32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G32" t="s">
-        <v>113</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
@@ -2327,7 +2339,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
         <v>143</v>
@@ -2335,8 +2347,17 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
       <c r="H33" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
@@ -2345,25 +2366,25 @@
         <v>63</v>
       </c>
       <c r="L33" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N33" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <f>A32+1</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
         <v>143</v>
@@ -2371,11 +2392,17 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
       <c r="F34" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
@@ -2398,11 +2425,11 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <f>A33+1</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
         <v>143</v>
@@ -2410,17 +2437,8 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
@@ -2429,25 +2447,25 @@
         <v>63</v>
       </c>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N35" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
         <v>143</v>
@@ -2455,17 +2473,11 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" t="s">
-        <v>39</v>
-      </c>
       <c r="F36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G36" t="s">
-        <v>116</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="J36" t="s">
         <v>17</v>
@@ -2489,10 +2501,10 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
         <v>143</v>
@@ -2500,8 +2512,17 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
       <c r="H37" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s">
         <v>17</v>
@@ -2510,25 +2531,25 @@
         <v>63</v>
       </c>
       <c r="L37" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N37" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O37" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <f>A36+1</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C38" t="s">
         <v>143</v>
@@ -2536,11 +2557,17 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
       <c r="F38" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="G38" t="s">
+        <v>116</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
@@ -2563,11 +2590,11 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <f>A37+1</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C39" t="s">
         <v>143</v>
@@ -2575,17 +2602,8 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s">
         <v>17</v>
@@ -2594,25 +2612,25 @@
         <v>63</v>
       </c>
       <c r="L39" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N39" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
         <v>143</v>
@@ -2620,17 +2638,11 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
@@ -2653,11 +2665,11 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <f>A39+1</f>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
         <v>143</v>
@@ -2665,11 +2677,17 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
       <c r="F41" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -2692,11 +2710,11 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <f>A40+1</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
         <v>143</v>
@@ -2708,7 +2726,7 @@
         <v>39</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -2738,10 +2756,10 @@
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C43" t="s">
         <v>143</v>
@@ -2749,17 +2767,11 @@
       <c r="D43" t="s">
         <v>16</v>
       </c>
-      <c r="E43" t="s">
-        <v>39</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="J43" t="s">
         <v>17</v>
@@ -2783,19 +2795,28 @@
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -2804,35 +2825,43 @@
         <v>63</v>
       </c>
       <c r="L44" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N44" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
       <c r="H45" s="1" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -2856,10 +2885,10 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
         <v>144</v>
@@ -2867,17 +2896,8 @@
       <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
@@ -2886,25 +2906,25 @@
         <v>63</v>
       </c>
       <c r="L46" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N46" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O46" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
         <v>144</v>
@@ -2938,10 +2958,10 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
         <v>144</v>
@@ -2953,7 +2973,7 @@
         <v>39</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -2983,10 +3003,10 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
         <v>144</v>
@@ -2994,10 +3014,9 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
@@ -3021,10 +3040,10 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
         <v>144</v>
@@ -3032,8 +3051,17 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
       <c r="H50" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
@@ -3042,25 +3070,25 @@
         <v>63</v>
       </c>
       <c r="L50" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N50" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O50" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
         <v>144</v>
@@ -3068,17 +3096,10 @@
       <c r="D51" t="s">
         <v>16</v>
       </c>
-      <c r="E51" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="5"/>
       <c r="H51" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -3102,10 +3123,10 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
         <v>144</v>
@@ -3113,17 +3134,8 @@
       <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="E52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
@@ -3132,28 +3144,28 @@
         <v>63</v>
       </c>
       <c r="L52" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N52" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O52" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -3162,7 +3174,7 @@
         <v>39</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -3192,19 +3204,28 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
       </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
       <c r="H54" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
@@ -3213,25 +3234,25 @@
         <v>63</v>
       </c>
       <c r="L54" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N54" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O54" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
         <v>145</v>
@@ -3239,11 +3260,17 @@
       <c r="D55" t="s">
         <v>16</v>
       </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
@@ -3267,10 +3294,10 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
         <v>145</v>
@@ -3278,17 +3305,8 @@
       <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="E56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
@@ -3297,25 +3315,25 @@
         <v>63</v>
       </c>
       <c r="L56" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N56" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O56" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
         <v>145</v>
@@ -3323,17 +3341,11 @@
       <c r="D57" t="s">
         <v>16</v>
       </c>
-      <c r="E57" t="s">
-        <v>39</v>
-      </c>
       <c r="F57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G57" t="s">
-        <v>128</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -3357,10 +3369,10 @@
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
         <v>145</v>
@@ -3372,7 +3384,7 @@
         <v>39</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -3402,10 +3414,10 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
         <v>145</v>
@@ -3413,11 +3425,17 @@
       <c r="D59" t="s">
         <v>16</v>
       </c>
+      <c r="E59" t="s">
+        <v>39</v>
+      </c>
       <c r="F59" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="G59" t="s">
+        <v>128</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
@@ -3441,10 +3459,10 @@
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
         <v>145</v>
@@ -3456,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" t="s">
         <v>29</v>
@@ -3486,10 +3504,10 @@
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
         <v>145</v>
@@ -3497,17 +3515,11 @@
       <c r="D61" t="s">
         <v>16</v>
       </c>
-      <c r="E61" t="s">
-        <v>39</v>
-      </c>
       <c r="F61" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G61" t="s">
-        <v>132</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -3531,10 +3543,10 @@
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
         <v>145</v>
@@ -3542,8 +3554,17 @@
       <c r="D62" t="s">
         <v>16</v>
       </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
       <c r="H62" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
@@ -3552,25 +3573,25 @@
         <v>63</v>
       </c>
       <c r="L62" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N62" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O62" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
         <v>145</v>
@@ -3578,11 +3599,17 @@
       <c r="D63" t="s">
         <v>16</v>
       </c>
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
       <c r="F63" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="G63" t="s">
+        <v>132</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s">
         <v>17</v>
@@ -3591,25 +3618,25 @@
         <v>63</v>
       </c>
       <c r="L63" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N63" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O63" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
         <v>145</v>
@@ -3617,17 +3644,8 @@
       <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="E64" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
@@ -3636,25 +3654,25 @@
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N64" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O64" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
         <v>145</v>
@@ -3662,17 +3680,11 @@
       <c r="D65" t="s">
         <v>16</v>
       </c>
-      <c r="E65" t="s">
-        <v>39</v>
-      </c>
       <c r="F65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -3681,25 +3693,25 @@
         <v>63</v>
       </c>
       <c r="L65" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N65" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O65" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <f>A64+1</f>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
         <v>145</v>
@@ -3707,11 +3719,17 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
       <c r="F66" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
@@ -3734,11 +3752,11 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <f>A65+1</f>
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
         <v>145</v>
@@ -3750,7 +3768,7 @@
         <v>39</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G67" t="s">
         <v>29</v>
@@ -3779,29 +3797,23 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" ref="A68:A114" si="1">A67+1</f>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E68" t="s">
-        <v>84</v>
+      <c r="D68" t="s">
+        <v>16</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
@@ -3824,23 +3836,23 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>82</v>
+      <c r="D69" t="s">
+        <v>16</v>
       </c>
       <c r="E69" t="s">
         <v>39</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="G69" t="s">
         <v>29</v>
@@ -3869,23 +3881,23 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
         <v>145</v>
       </c>
-      <c r="D70" t="s">
-        <v>16</v>
+      <c r="D70" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="G70" t="s">
         <v>29</v>
@@ -3914,23 +3926,23 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
         <v>145</v>
       </c>
-      <c r="D71" t="s">
-        <v>16</v>
+      <c r="D71" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E71" t="s">
         <v>39</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="G71" t="s">
         <v>29</v>
@@ -3959,20 +3971,29 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <f t="shared" ref="A72:A77" si="1">A71+1</f>
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
       </c>
+      <c r="E72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
       <c r="H72" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J72" t="s">
         <v>17</v>
@@ -3981,34 +4002,43 @@
         <v>63</v>
       </c>
       <c r="L72" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N72" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O72" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
       </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
       <c r="H73" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
@@ -4017,25 +4047,25 @@
         <v>63</v>
       </c>
       <c r="L73" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N73" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O73" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
         <v>144</v>
@@ -4043,9 +4073,8 @@
       <c r="D74" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
@@ -4054,25 +4083,25 @@
         <v>63</v>
       </c>
       <c r="L74" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N74" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O74" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
         <v>144</v>
@@ -4080,17 +4109,8 @@
       <c r="D75" t="s">
         <v>16</v>
       </c>
-      <c r="E75" t="s">
-        <v>39</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
@@ -4099,25 +4119,25 @@
         <v>63</v>
       </c>
       <c r="L75" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N75" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O75" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
         <v>144</v>
@@ -4125,17 +4145,9 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="E76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+      <c r="F76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
@@ -4159,203 +4171,238 @@
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" t="s">
+        <v>63</v>
+      </c>
+      <c r="L77" t="s">
+        <v>64</v>
+      </c>
+      <c r="M77" t="s">
+        <v>66</v>
+      </c>
+      <c r="N77" t="s">
+        <v>68</v>
+      </c>
+      <c r="O77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" t="s">
+        <v>63</v>
+      </c>
+      <c r="L78" t="s">
+        <v>64</v>
+      </c>
+      <c r="M78" t="s">
+        <v>66</v>
+      </c>
+      <c r="N78" t="s">
+        <v>68</v>
+      </c>
+      <c r="O78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" t="s">
         <v>146</v>
       </c>
-      <c r="D77" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" t="s">
-        <v>39</v>
-      </c>
-      <c r="F77" s="5" t="s">
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G77" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" t="s">
-        <v>63</v>
-      </c>
-      <c r="L77" t="s">
-        <v>64</v>
-      </c>
-      <c r="M77" t="s">
-        <v>66</v>
-      </c>
-      <c r="N77" t="s">
-        <v>68</v>
-      </c>
-      <c r="O77" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="F78" s="5"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="F79" s="5"/>
-      <c r="H79" s="1"/>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>63</v>
+      </c>
+      <c r="L79" t="s">
+        <v>64</v>
+      </c>
+      <c r="M79" t="s">
+        <v>66</v>
+      </c>
+      <c r="N79" t="s">
+        <v>68</v>
+      </c>
+      <c r="O79" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
+      <c r="A80" s="3">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
       <c r="F80" s="5"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
+      <c r="A81" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="F81" s="5"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
+      <c r="A82" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
       <c r="F82" s="5"/>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
+      <c r="A83" s="3">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>57</v>
-      </c>
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
-        <v>142</v>
-      </c>
-      <c r="D84" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J84" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" t="s">
-        <v>63</v>
-      </c>
-      <c r="L84" t="s">
-        <v>64</v>
-      </c>
-      <c r="M84" t="s">
-        <v>66</v>
-      </c>
-      <c r="N84" t="s">
-        <v>68</v>
-      </c>
-      <c r="O84" t="s">
-        <v>70</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>57</v>
-      </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" t="s">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
         <v>142</v>
       </c>
-      <c r="D85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="6"/>
-      <c r="H85" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J85" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" t="s">
-        <v>63</v>
-      </c>
-      <c r="L85" t="s">
-        <v>64</v>
-      </c>
-      <c r="M85" t="s">
-        <v>66</v>
-      </c>
-      <c r="N85" t="s">
-        <v>68</v>
-      </c>
-      <c r="O85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10">
-        <v>58</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L86" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M86" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N86" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O86" s="9" t="s">
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
+        <v>63</v>
+      </c>
+      <c r="L86" t="s">
+        <v>64</v>
+      </c>
+      <c r="M86" t="s">
+        <v>66</v>
+      </c>
+      <c r="N86" t="s">
+        <v>68</v>
+      </c>
+      <c r="O86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
         <v>142</v>
@@ -4363,11 +4410,9 @@
       <c r="D87" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="F87" s="6"/>
       <c r="H87" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J87" t="s">
         <v>17</v>
@@ -4388,56 +4433,53 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" t="s">
-        <v>39</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J88" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" t="s">
-        <v>63</v>
-      </c>
-      <c r="L88" t="s">
-        <v>64</v>
-      </c>
-      <c r="M88" t="s">
-        <v>66</v>
-      </c>
-      <c r="N88" t="s">
-        <v>68</v>
-      </c>
-      <c r="O88" t="s">
+      <c r="D88" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O88" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C89" t="s">
         <v>142</v>
@@ -4445,17 +4487,11 @@
       <c r="D89" t="s">
         <v>16</v>
       </c>
-      <c r="E89" t="s">
-        <v>39</v>
-      </c>
       <c r="F89" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G89" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="J89" t="s">
         <v>17</v>
@@ -4478,10 +4514,11 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s">
         <v>142</v>
@@ -4492,8 +4529,8 @@
       <c r="E90" t="s">
         <v>39</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>102</v>
+      <c r="F90" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -4522,10 +4559,11 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
         <v>142</v>
@@ -4533,11 +4571,11 @@
       <c r="D91" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>103</v>
+      <c r="E91" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -4566,10 +4604,11 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
         <v>142</v>
@@ -4577,11 +4616,11 @@
       <c r="D92" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>39</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -4610,10 +4649,11 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s">
         <v>142</v>
@@ -4621,9 +4661,17 @@
       <c r="D93" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="5"/>
+      <c r="E93" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" t="s">
+        <v>29</v>
+      </c>
       <c r="H93" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J93" t="s">
         <v>17</v>
@@ -4644,51 +4692,58 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="10">
-        <v>59</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="9" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
         <v>142</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O94" s="9" t="s">
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" t="s">
+        <v>63</v>
+      </c>
+      <c r="L94" t="s">
+        <v>64</v>
+      </c>
+      <c r="M94" t="s">
+        <v>66</v>
+      </c>
+      <c r="N94" t="s">
+        <v>68</v>
+      </c>
+      <c r="O94" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
         <v>142</v>
@@ -4696,11 +4751,9 @@
       <c r="D95" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="F95" s="5"/>
       <c r="H95" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="J95" t="s">
         <v>17</v>
@@ -4721,56 +4774,53 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" t="s">
-        <v>39</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J96" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" t="s">
-        <v>63</v>
-      </c>
-      <c r="L96" t="s">
-        <v>64</v>
-      </c>
-      <c r="M96" t="s">
-        <v>66</v>
-      </c>
-      <c r="N96" t="s">
-        <v>68</v>
-      </c>
-      <c r="O96" t="s">
+      <c r="D96" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O96" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
         <v>142</v>
@@ -4778,17 +4828,11 @@
       <c r="D97" t="s">
         <v>16</v>
       </c>
-      <c r="E97" t="s">
-        <v>39</v>
-      </c>
       <c r="F97" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="J97" t="s">
         <v>17</v>
@@ -4811,10 +4855,11 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C98" t="s">
         <v>142</v>
@@ -4826,7 +4871,7 @@
         <v>39</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -4855,10 +4900,11 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C99" t="s">
         <v>142</v>
@@ -4866,11 +4912,11 @@
       <c r="D99" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -4899,10 +4945,11 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C100" t="s">
         <v>142</v>
@@ -4910,11 +4957,11 @@
       <c r="D100" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G100" t="s">
         <v>29</v>
@@ -4943,10 +4990,11 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C101" t="s">
         <v>142</v>
@@ -4954,9 +5002,17 @@
       <c r="D101" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="5"/>
+      <c r="E101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G101" t="s">
+        <v>29</v>
+      </c>
       <c r="H101" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
@@ -4977,51 +5033,58 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="10">
-        <v>60</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="9" t="s">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" t="s">
         <v>142</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J102" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L102" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M102" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N102" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O102" s="9" t="s">
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G102" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J102" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" t="s">
+        <v>63</v>
+      </c>
+      <c r="L102" t="s">
+        <v>64</v>
+      </c>
+      <c r="M102" t="s">
+        <v>66</v>
+      </c>
+      <c r="N102" t="s">
+        <v>68</v>
+      </c>
+      <c r="O102" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
         <v>142</v>
@@ -5029,11 +5092,9 @@
       <c r="D103" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="F103" s="5"/>
       <c r="H103" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
@@ -5054,56 +5115,53 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D104" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" t="s">
-        <v>39</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J104" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104" t="s">
-        <v>63</v>
-      </c>
-      <c r="L104" t="s">
-        <v>64</v>
-      </c>
-      <c r="M104" t="s">
-        <v>66</v>
-      </c>
-      <c r="N104" t="s">
-        <v>68</v>
-      </c>
-      <c r="O104" t="s">
+      <c r="D104" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O104" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C105" t="s">
         <v>142</v>
@@ -5111,17 +5169,11 @@
       <c r="D105" t="s">
         <v>16</v>
       </c>
-      <c r="E105" t="s">
-        <v>39</v>
-      </c>
       <c r="F105" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G105" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="J105" t="s">
         <v>17</v>
@@ -5144,10 +5196,11 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
         <v>142</v>
@@ -5159,7 +5212,7 @@
         <v>39</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -5188,10 +5241,11 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
         <v>142</v>
@@ -5199,11 +5253,11 @@
       <c r="D107" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" t="s">
         <v>39</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -5232,10 +5286,11 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
         <v>142</v>
@@ -5243,11 +5298,11 @@
       <c r="D108" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" t="s">
         <v>39</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -5276,246 +5331,285 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C109" t="s">
+        <v>142</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J109" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" t="s">
+        <v>63</v>
+      </c>
+      <c r="L109" t="s">
+        <v>64</v>
+      </c>
+      <c r="M109" t="s">
+        <v>66</v>
+      </c>
+      <c r="N109" t="s">
+        <v>68</v>
+      </c>
+      <c r="O109" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" t="s">
+        <v>142</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J110" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" t="s">
+        <v>63</v>
+      </c>
+      <c r="L110" t="s">
+        <v>64</v>
+      </c>
+      <c r="M110" t="s">
+        <v>66</v>
+      </c>
+      <c r="N110" t="s">
+        <v>68</v>
+      </c>
+      <c r="O110" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" t="s">
         <v>147</v>
       </c>
-      <c r="D109" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="5" t="s">
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G109" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J109" t="s">
-        <v>17</v>
-      </c>
-      <c r="K109" t="s">
-        <v>63</v>
-      </c>
-      <c r="L109" t="s">
-        <v>64</v>
-      </c>
-      <c r="M109" t="s">
-        <v>66</v>
-      </c>
-      <c r="N109" t="s">
-        <v>68</v>
-      </c>
-      <c r="O109" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="5"/>
-      <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="5"/>
-      <c r="H111" s="1"/>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J111" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" t="s">
+        <v>63</v>
+      </c>
+      <c r="L111" t="s">
+        <v>64</v>
+      </c>
+      <c r="M111" t="s">
+        <v>66</v>
+      </c>
+      <c r="N111" t="s">
+        <v>68</v>
+      </c>
+      <c r="O111" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="3"/>
-      <c r="E112" s="1"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
-        <f t="shared" ref="A118:A174" si="2">A117+1</f>
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="A112" s="3">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" t="s">
         <v>147</v>
       </c>
-      <c r="D118" t="s">
-        <v>82</v>
-      </c>
-      <c r="E118" t="s">
-        <v>39</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J118" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" t="s">
-        <v>63</v>
-      </c>
-      <c r="L118" t="s">
-        <v>64</v>
-      </c>
-      <c r="M118" t="s">
-        <v>66</v>
-      </c>
-      <c r="N118" t="s">
-        <v>68</v>
-      </c>
-      <c r="O118" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B119" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" t="s">
+        <v>185</v>
+      </c>
+      <c r="G112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" t="s">
+        <v>63</v>
+      </c>
+      <c r="L112" t="s">
+        <v>186</v>
+      </c>
+      <c r="M112" t="s">
+        <v>187</v>
+      </c>
+      <c r="N112" t="s">
+        <v>188</v>
+      </c>
+      <c r="O112" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" t="s">
         <v>147</v>
       </c>
-      <c r="D119" t="s">
-        <v>82</v>
-      </c>
-      <c r="E119" t="s">
-        <v>39</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G119" t="s">
-        <v>30</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J119" t="s">
-        <v>17</v>
-      </c>
-      <c r="K119" t="s">
-        <v>63</v>
-      </c>
-      <c r="L119" t="s">
-        <v>64</v>
-      </c>
-      <c r="M119" t="s">
-        <v>66</v>
-      </c>
-      <c r="N119" t="s">
-        <v>68</v>
-      </c>
-      <c r="O119" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" t="s">
-        <v>144</v>
-      </c>
-      <c r="D120" t="s">
-        <v>82</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="5"/>
-      <c r="H120" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J120" t="s">
-        <v>17</v>
-      </c>
-      <c r="K120" t="s">
-        <v>63</v>
-      </c>
-      <c r="L120" t="s">
-        <v>64</v>
-      </c>
-      <c r="M120" t="s">
-        <v>66</v>
-      </c>
-      <c r="N120" t="s">
-        <v>68</v>
-      </c>
-      <c r="O120" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
-        <f>A119+1</f>
-        <v>3</v>
-      </c>
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" t="s">
+        <v>190</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J113" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" t="s">
+        <v>63</v>
+      </c>
+      <c r="L113" t="s">
+        <v>186</v>
+      </c>
+      <c r="M113" t="s">
+        <v>187</v>
+      </c>
+      <c r="N113" t="s">
+        <v>188</v>
+      </c>
+      <c r="O113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" t="s">
         <v>147</v>
       </c>
-      <c r="D121" t="s">
-        <v>82</v>
-      </c>
-      <c r="E121" t="s">
-        <v>39</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J121" t="s">
-        <v>17</v>
-      </c>
-      <c r="K121" t="s">
-        <v>63</v>
-      </c>
-      <c r="L121" t="s">
-        <v>64</v>
-      </c>
-      <c r="M121" t="s">
-        <v>66</v>
-      </c>
-      <c r="N121" t="s">
-        <v>68</v>
-      </c>
-      <c r="O121" t="s">
-        <v>70</v>
-      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="H114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J114" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" t="s">
+        <v>63</v>
+      </c>
+      <c r="L114" t="s">
+        <v>64</v>
+      </c>
+      <c r="M114" t="s">
+        <v>66</v>
+      </c>
+      <c r="N114" t="s">
+        <v>68</v>
+      </c>
+      <c r="O114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" s="3"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="5"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+      <c r="E116" s="1"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="1"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" ref="A122:A178" si="2">A121+1</f>
+        <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C122" t="s">
         <v>147</v>
@@ -5527,13 +5621,13 @@
         <v>39</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J122" t="s">
         <v>17</v>
@@ -5557,21 +5651,28 @@
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D123" t="s">
         <v>82</v>
       </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="5"/>
+      <c r="E123" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G123" t="s">
+        <v>30</v>
+      </c>
       <c r="H123" s="1" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="J123" t="s">
         <v>17</v>
@@ -5594,29 +5695,22 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <f>A122+1</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C124" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D124" t="s">
         <v>82</v>
       </c>
-      <c r="E124" t="s">
-        <v>39</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G124" t="s">
-        <v>29</v>
-      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="5"/>
       <c r="H124" s="1" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
@@ -5639,11 +5733,11 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>A123+1</f>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C125" t="s">
         <v>147</v>
@@ -5655,7 +5749,7 @@
         <v>39</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
@@ -5685,10 +5779,10 @@
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C126" t="s">
         <v>147</v>
@@ -5700,13 +5794,13 @@
         <v>39</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="J126" t="s">
         <v>17</v>
@@ -5730,28 +5824,21 @@
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C127" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D127" t="s">
         <v>82</v>
       </c>
-      <c r="E127" t="s">
-        <v>39</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G127" t="s">
-        <v>29</v>
-      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="5"/>
       <c r="H127" s="1" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="J127" t="s">
         <v>17</v>
@@ -5774,11 +5861,11 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>A126+1</f>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C128" t="s">
         <v>147</v>
@@ -5787,10 +5874,10 @@
         <v>82</v>
       </c>
       <c r="E128" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -5820,10 +5907,10 @@
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C129" t="s">
         <v>147</v>
@@ -5835,7 +5922,7 @@
         <v>39</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -5865,10 +5952,10 @@
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C130" t="s">
         <v>147</v>
@@ -5880,13 +5967,13 @@
         <v>39</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J130" t="s">
         <v>17</v>
@@ -5909,11 +5996,11 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <f>A129+1</f>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C131" t="s">
         <v>147</v>
@@ -5925,7 +6012,7 @@
         <v>39</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
@@ -5955,10 +6042,10 @@
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
         <v>147</v>
@@ -5967,10 +6054,10 @@
         <v>82</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -6000,10 +6087,10 @@
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
         <v>147</v>
@@ -6015,7 +6102,7 @@
         <v>39</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="G133" t="s">
         <v>29</v>
@@ -6045,10 +6132,10 @@
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C134" t="s">
         <v>147</v>
@@ -6060,13 +6147,13 @@
         <v>39</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="J134" t="s">
         <v>17</v>
@@ -6089,11 +6176,11 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f>A133+1</f>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C135" t="s">
         <v>147</v>
@@ -6105,7 +6192,7 @@
         <v>39</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G135" t="s">
         <v>29</v>
@@ -6135,21 +6222,28 @@
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C136" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D136" t="s">
         <v>82</v>
       </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="5"/>
+      <c r="E136" t="s">
+        <v>39</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
       <c r="H136" s="1" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="J136" t="s">
         <v>17</v>
@@ -6172,11 +6266,11 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <f>A135+1</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C137" t="s">
         <v>147</v>
@@ -6188,7 +6282,7 @@
         <v>39</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="G137" t="s">
         <v>29</v>
@@ -6218,10 +6312,10 @@
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C138" t="s">
         <v>147</v>
@@ -6233,7 +6327,7 @@
         <v>39</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
@@ -6263,10 +6357,10 @@
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C139" t="s">
         <v>147</v>
@@ -6278,7 +6372,7 @@
         <v>39</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G139" t="s">
         <v>29</v>
@@ -6308,28 +6402,21 @@
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C140" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D140" t="s">
         <v>82</v>
       </c>
-      <c r="E140" t="s">
-        <v>39</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="5"/>
       <c r="H140" s="1" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="J140" t="s">
         <v>17</v>
@@ -6352,22 +6439,29 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>A139+1</f>
+        <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C141" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D141" t="s">
         <v>82</v>
       </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="5"/>
+      <c r="E141" t="s">
+        <v>39</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G141" t="s">
+        <v>29</v>
+      </c>
       <c r="H141" s="1" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="J141" t="s">
         <v>17</v>
@@ -6390,11 +6484,11 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <f>A140+1</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s">
         <v>147</v>
@@ -6406,7 +6500,7 @@
         <v>39</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -6436,10 +6530,10 @@
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C143" t="s">
         <v>147</v>
@@ -6451,7 +6545,7 @@
         <v>39</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G143" t="s">
         <v>29</v>
@@ -6481,10 +6575,10 @@
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C144" t="s">
         <v>147</v>
@@ -6496,7 +6590,7 @@
         <v>39</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -6526,28 +6620,21 @@
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D145" t="s">
         <v>82</v>
       </c>
-      <c r="E145" t="s">
-        <v>39</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G145" t="s">
-        <v>29</v>
-      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="5"/>
       <c r="H145" s="1" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="J145" t="s">
         <v>17</v>
@@ -6570,22 +6657,29 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>A144+1</f>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C146" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D146" t="s">
         <v>82</v>
       </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="5"/>
+      <c r="E146" t="s">
+        <v>39</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G146" t="s">
+        <v>29</v>
+      </c>
       <c r="H146" s="1" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="J146" t="s">
         <v>17</v>
@@ -6608,11 +6702,11 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <f>A145+1</f>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C147" t="s">
         <v>147</v>
@@ -6624,7 +6718,7 @@
         <v>39</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -6654,10 +6748,10 @@
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C148" t="s">
         <v>147</v>
@@ -6669,7 +6763,7 @@
         <v>39</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G148" t="s">
         <v>29</v>
@@ -6699,10 +6793,10 @@
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C149" t="s">
         <v>147</v>
@@ -6714,7 +6808,7 @@
         <v>39</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -6744,28 +6838,21 @@
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C150" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D150" t="s">
         <v>82</v>
       </c>
-      <c r="E150" t="s">
-        <v>39</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
-      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="5"/>
       <c r="H150" s="1" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="J150" t="s">
         <v>17</v>
@@ -6788,11 +6875,11 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f>A149+1</f>
+        <v>24</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C151" t="s">
         <v>147</v>
@@ -6804,7 +6891,7 @@
         <v>39</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="G151" t="s">
         <v>29</v>
@@ -6834,10 +6921,10 @@
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C152" t="s">
         <v>147</v>
@@ -6849,7 +6936,7 @@
         <v>39</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -6879,10 +6966,10 @@
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C153" t="s">
         <v>147</v>
@@ -6894,7 +6981,7 @@
         <v>39</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
@@ -6924,10 +7011,10 @@
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C154" t="s">
         <v>147</v>
@@ -6939,7 +7026,7 @@
         <v>39</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -6969,10 +7056,10 @@
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C155" t="s">
         <v>147</v>
@@ -7014,10 +7101,10 @@
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C156" t="s">
         <v>147</v>
@@ -7029,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G156" t="s">
         <v>29</v>
@@ -7059,10 +7146,10 @@
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C157" t="s">
         <v>147</v>
@@ -7074,13 +7161,13 @@
         <v>39</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="G157" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="J157" t="s">
         <v>17</v>
@@ -7104,19 +7191,28 @@
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C158" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D158" t="s">
         <v>82</v>
       </c>
+      <c r="E158" t="s">
+        <v>39</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G158" t="s">
+        <v>29</v>
+      </c>
       <c r="H158" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J158" t="s">
         <v>17</v>
@@ -7125,25 +7221,25 @@
         <v>63</v>
       </c>
       <c r="L158" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M158" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N158" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O158" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C159" t="s">
         <v>147</v>
@@ -7155,7 +7251,7 @@
         <v>39</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -7185,10 +7281,10 @@
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C160" t="s">
         <v>147</v>
@@ -7200,13 +7296,13 @@
         <v>39</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G160" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="J160" t="s">
         <v>17</v>
@@ -7230,19 +7326,28 @@
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C161" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D161" t="s">
         <v>82</v>
       </c>
+      <c r="E161" t="s">
+        <v>39</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G161" t="s">
+        <v>160</v>
+      </c>
       <c r="H161" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J161" t="s">
         <v>17</v>
@@ -7251,43 +7356,34 @@
         <v>63</v>
       </c>
       <c r="L161" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M161" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N161" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O161" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C162" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D162" t="s">
         <v>82</v>
       </c>
-      <c r="E162" t="s">
-        <v>39</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G162" t="s">
-        <v>29</v>
-      </c>
       <c r="H162" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J162" t="s">
         <v>17</v>
@@ -7296,25 +7392,25 @@
         <v>63</v>
       </c>
       <c r="L162" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M162" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N162" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O162" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C163" t="s">
         <v>147</v>
@@ -7326,7 +7422,7 @@
         <v>39</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="G163" t="s">
         <v>29</v>
@@ -7356,10 +7452,10 @@
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C164" t="s">
         <v>147</v>
@@ -7371,13 +7467,13 @@
         <v>39</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="J164" t="s">
         <v>17</v>
@@ -7401,28 +7497,19 @@
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C165" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D165" t="s">
         <v>82</v>
       </c>
-      <c r="E165" t="s">
-        <v>39</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G165" t="s">
-        <v>29</v>
-      </c>
       <c r="H165" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J165" t="s">
         <v>17</v>
@@ -7431,34 +7518,43 @@
         <v>63</v>
       </c>
       <c r="L165" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M165" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N165" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O165" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C166" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D166" t="s">
         <v>82</v>
       </c>
+      <c r="E166" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G166" t="s">
+        <v>29</v>
+      </c>
       <c r="H166" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J166" t="s">
         <v>17</v>
@@ -7467,25 +7563,25 @@
         <v>63</v>
       </c>
       <c r="L166" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M166" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N166" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O166" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C167" t="s">
         <v>147</v>
@@ -7497,7 +7593,7 @@
         <v>39</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -7527,10 +7623,10 @@
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C168" t="s">
         <v>147</v>
@@ -7542,7 +7638,7 @@
         <v>39</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -7572,10 +7668,10 @@
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C169" t="s">
         <v>147</v>
@@ -7587,7 +7683,7 @@
         <v>39</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G169" t="s">
         <v>29</v>
@@ -7617,28 +7713,19 @@
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C170" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D170" t="s">
         <v>82</v>
       </c>
-      <c r="E170" t="s">
-        <v>39</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G170" t="s">
-        <v>29</v>
-      </c>
       <c r="H170" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J170" t="s">
         <v>17</v>
@@ -7647,34 +7734,43 @@
         <v>63</v>
       </c>
       <c r="L170" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M170" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N170" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O170" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C171" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D171" t="s">
         <v>82</v>
       </c>
+      <c r="E171" t="s">
+        <v>39</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G171" t="s">
+        <v>29</v>
+      </c>
       <c r="H171" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J171" t="s">
         <v>17</v>
@@ -7683,25 +7779,25 @@
         <v>63</v>
       </c>
       <c r="L171" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M171" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N171" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O171" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C172" t="s">
         <v>147</v>
@@ -7713,7 +7809,7 @@
         <v>39</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G172" t="s">
         <v>29</v>
@@ -7743,10 +7839,10 @@
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C173" t="s">
         <v>147</v>
@@ -7758,13 +7854,13 @@
         <v>39</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J173" t="s">
         <v>17</v>
@@ -7788,10 +7884,10 @@
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C174" t="s">
         <v>147</v>
@@ -7803,51 +7899,139 @@
         <v>39</v>
       </c>
       <c r="F174" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J174" t="s">
+        <v>17</v>
+      </c>
+      <c r="K174" t="s">
+        <v>63</v>
+      </c>
+      <c r="L174" t="s">
+        <v>64</v>
+      </c>
+      <c r="M174" t="s">
+        <v>66</v>
+      </c>
+      <c r="N174" t="s">
+        <v>68</v>
+      </c>
+      <c r="O174" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B175" t="s">
+        <v>184</v>
+      </c>
+      <c r="C175" t="s">
+        <v>144</v>
+      </c>
+      <c r="D175" t="s">
+        <v>82</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J175" t="s">
+        <v>17</v>
+      </c>
+      <c r="K175" t="s">
+        <v>63</v>
+      </c>
+      <c r="L175" t="s">
+        <v>52</v>
+      </c>
+      <c r="M175" t="s">
+        <v>65</v>
+      </c>
+      <c r="N175" t="s">
+        <v>55</v>
+      </c>
+      <c r="O175" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B176" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" t="s">
+        <v>147</v>
+      </c>
+      <c r="D176" t="s">
+        <v>82</v>
+      </c>
+      <c r="E176" t="s">
+        <v>39</v>
+      </c>
+      <c r="F176" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G174" t="s">
-        <v>29</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J174" t="s">
-        <v>17</v>
-      </c>
-      <c r="K174" t="s">
-        <v>63</v>
-      </c>
-      <c r="L174" t="s">
-        <v>64</v>
-      </c>
-      <c r="M174" t="s">
-        <v>66</v>
-      </c>
-      <c r="N174" t="s">
-        <v>68</v>
-      </c>
-      <c r="O174" t="s">
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+      <c r="K176" t="s">
+        <v>63</v>
+      </c>
+      <c r="L176" t="s">
+        <v>64</v>
+      </c>
+      <c r="M176" t="s">
+        <v>66</v>
+      </c>
+      <c r="N176" t="s">
+        <v>68</v>
+      </c>
+      <c r="O176" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <f>A121+1</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>177</v>
-      </c>
-      <c r="D177" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D177" t="s">
         <v>82</v>
       </c>
-      <c r="E177" s="1"/>
-      <c r="F177" s="5"/>
+      <c r="E177" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G177" t="s">
+        <v>30</v>
+      </c>
       <c r="H177" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="J177" t="s">
         <v>17</v>
@@ -7870,25 +8054,29 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <f t="shared" ref="A178" si="3">A177+1</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C178" t="s">
-        <v>177</v>
-      </c>
-      <c r="D178" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D178" t="s">
         <v>82</v>
       </c>
-      <c r="E178" s="1"/>
-      <c r="F178" s="5"/>
+      <c r="E178" t="s">
+        <v>39</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="G178" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="J178" t="s">
         <v>17</v>
@@ -7906,92 +8094,13 @@
         <v>68</v>
       </c>
       <c r="O178" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
-        <f>A124+1</f>
-        <v>6</v>
-      </c>
-      <c r="B179" t="s">
-        <v>15</v>
-      </c>
-      <c r="C179" t="s">
-        <v>177</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E179" s="1"/>
-      <c r="F179" s="5"/>
-      <c r="H179" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J179" t="s">
-        <v>17</v>
-      </c>
-      <c r="K179" t="s">
-        <v>63</v>
-      </c>
-      <c r="L179" t="s">
-        <v>64</v>
-      </c>
-      <c r="M179" t="s">
-        <v>66</v>
-      </c>
-      <c r="N179" t="s">
-        <v>68</v>
-      </c>
-      <c r="O179" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
-        <f t="shared" ref="A180" si="4">A179+1</f>
-        <v>7</v>
-      </c>
-      <c r="B180" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180" t="s">
-        <v>177</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E180" s="1"/>
-      <c r="F180" s="5"/>
-      <c r="G180" t="s">
-        <v>167</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J180" t="s">
-        <v>17</v>
-      </c>
-      <c r="K180" t="s">
-        <v>63</v>
-      </c>
-      <c r="L180" t="s">
-        <v>64</v>
-      </c>
-      <c r="M180" t="s">
-        <v>66</v>
-      </c>
-      <c r="N180" t="s">
-        <v>68</v>
-      </c>
-      <c r="O180" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <f>A126+1</f>
-        <v>8</v>
+        <f>A125+1</f>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
         <v>15</v>
@@ -8005,7 +8114,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="5"/>
       <c r="H181" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J181" t="s">
         <v>17</v>
@@ -8028,8 +8137,8 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <f t="shared" ref="A182" si="5">A181+1</f>
-        <v>9</v>
+        <f t="shared" ref="A182" si="3">A181+1</f>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
@@ -8043,27 +8152,185 @@
       <c r="E182" s="1"/>
       <c r="F182" s="5"/>
       <c r="G182" t="s">
+        <v>165</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J182" t="s">
+        <v>17</v>
+      </c>
+      <c r="K182" t="s">
+        <v>63</v>
+      </c>
+      <c r="L182" t="s">
+        <v>64</v>
+      </c>
+      <c r="M182" t="s">
+        <v>66</v>
+      </c>
+      <c r="N182" t="s">
+        <v>68</v>
+      </c>
+      <c r="O182" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <f>A128+1</f>
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" t="s">
+        <v>177</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="5"/>
+      <c r="H183" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J183" t="s">
+        <v>17</v>
+      </c>
+      <c r="K183" t="s">
+        <v>63</v>
+      </c>
+      <c r="L183" t="s">
+        <v>64</v>
+      </c>
+      <c r="M183" t="s">
+        <v>66</v>
+      </c>
+      <c r="N183" t="s">
+        <v>68</v>
+      </c>
+      <c r="O183" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <f t="shared" ref="A184" si="4">A183+1</f>
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" t="s">
+        <v>177</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E184" s="1"/>
+      <c r="F184" s="5"/>
+      <c r="G184" t="s">
+        <v>167</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J184" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" t="s">
+        <v>63</v>
+      </c>
+      <c r="L184" t="s">
+        <v>64</v>
+      </c>
+      <c r="M184" t="s">
+        <v>66</v>
+      </c>
+      <c r="N184" t="s">
+        <v>68</v>
+      </c>
+      <c r="O184" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <f>A130+1</f>
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" t="s">
+        <v>177</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="5"/>
+      <c r="H185" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J185" t="s">
+        <v>17</v>
+      </c>
+      <c r="K185" t="s">
+        <v>63</v>
+      </c>
+      <c r="L185" t="s">
+        <v>64</v>
+      </c>
+      <c r="M185" t="s">
+        <v>66</v>
+      </c>
+      <c r="N185" t="s">
+        <v>68</v>
+      </c>
+      <c r="O185" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <f t="shared" ref="A186" si="5">A185+1</f>
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>177</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="5"/>
+      <c r="G186" t="s">
         <v>169</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J182" t="s">
-        <v>17</v>
-      </c>
-      <c r="K182" t="s">
-        <v>63</v>
-      </c>
-      <c r="L182" t="s">
-        <v>64</v>
-      </c>
-      <c r="M182" t="s">
-        <v>66</v>
-      </c>
-      <c r="N182" t="s">
-        <v>68</v>
-      </c>
-      <c r="O182" t="s">
+      <c r="J186" t="s">
+        <v>17</v>
+      </c>
+      <c r="K186" t="s">
+        <v>63</v>
+      </c>
+      <c r="L186" t="s">
+        <v>64</v>
+      </c>
+      <c r="M186" t="s">
+        <v>66</v>
+      </c>
+      <c r="N186" t="s">
+        <v>68</v>
+      </c>
+      <c r="O186" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8077,8 +8344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8192,7 +8459,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -8201,16 +8468,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>80</v>
@@ -8246,7 +8513,7 @@
         <v>129</v>
       </c>
       <c r="U2">
-        <v>38523563809</v>
+        <v>39812806770</v>
       </c>
       <c r="V2">
         <v>3</v>

--- a/DataSheet/FOS3UW_to_postSanction.xlsx
+++ b/DataSheet/FOS3UW_to_postSanction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344F67F5-8495-44C7-AC07-D604D0856B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0DC5C1-F215-4C35-BE59-7CB9D0FA297B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
   <dimension ref="A1:O186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
@@ -8344,8 +8344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8468,16 +8468,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>80</v>

--- a/DataSheet/FOS3UW_to_postSanction.xlsx
+++ b/DataSheet/FOS3UW_to_postSanction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0DC5C1-F215-4C35-BE59-7CB9D0FA297B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA1D020-63DF-403F-9BFA-292E5B5ED38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
@@ -8345,7 +8345,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8468,16 +8468,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>80</v>
